--- a/dados/contas.xlsx
+++ b/dados/contas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Alefsander\Python\Curso\DIO\Projeto -Sistema Bancário\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alefs\Documentos\Driver\Projetos\Projeto---Criando-um-Banco\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA6996-9E11-43A0-A47F-2F8F97CA5DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451F871C-817F-4AE1-935C-2085AA7FD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F594BE4-4476-4FDB-ABC0-480043505B8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F594BE4-4476-4FDB-ABC0-480043505B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="contas" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
+    <t>Tipo de Conta</t>
+  </si>
+  <si>
+    <t>ID usuário</t>
+  </si>
+  <si>
+    <t>Saldo atual</t>
+  </si>
+  <si>
+    <t>Agencia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -371,14 +400,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E820BE-D073-4CDD-B6FD-3617A7092602}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>